--- a/sms/회원정보.xlsx
+++ b/sms/회원정보.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>회원번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-9937-5351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>심교훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,23 +38,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-3645-4189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황병일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-2695-0631</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이정기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-4097-5812</t>
+    <t>010-0000-0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +396,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,10 +420,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -443,10 +431,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -454,10 +442,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -465,10 +453,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
